--- a/biology/Botanique/Agave_filifera/Agave_filifera.xlsx
+++ b/biology/Botanique/Agave_filifera/Agave_filifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agave filifera est une espèce de plantes à fleurs de la famille des Agavaceae originaire du centre du Mexique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet agave est très poilu, d'où son nom vernaculaire "agave poilu".
 Il est aussi petit. Il ne dépasse pas 40 cm de haut et 50 cm de large. En revanche, sa hampe florale mesure de 2 à 4 m.
